--- a/Lab/OP_lab5/analitics.xlsx
+++ b/Lab/OP_lab5/analitics.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dench\Desktop\Учеба\2курс\инфа\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dench\Desktop\github\Informatics_GUAP\Lab\OP_lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC703A6-448D-4F83-BDBC-E7F1B4AD24C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5B9484-89B0-43AF-A0CD-1B074BC0E63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>stupid sort</t>
   </si>
@@ -43,6 +44,9 @@
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>Количество перестановок</t>
   </si>
 </sst>
 </file>
@@ -78,8 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -846,7 +853,3056 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Количество</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> перестановок</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$10:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>quick sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$12:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B358-4C26-A817-2BF3D8C61CC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$10:$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>quick sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>recursive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B358-4C26-A817-2BF3D8C61CC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$10:$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>quick sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$12:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B358-4C26-A817-2BF3D8C61CC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$I$10:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>stupid sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$12:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B358-4C26-A817-2BF3D8C61CC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$J$10:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>stupid sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>recursive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24527782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98675184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B358-4C26-A817-2BF3D8C61CC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$10:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>stupid sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$J$12:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>494499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49495807</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197991165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B358-4C26-A817-2BF3D8C61CC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1955997360"/>
+        <c:axId val="1950943792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1955997360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1950943792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1950943792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955997360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> выполнения быстрой сортировки</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-1C2E-47DD-83BC-05A171714E0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recursive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-1C2E-47DD-83BC-05A171714E0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$3:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-1C2E-47DD-83BC-05A171714E0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1C2E-47DD-83BC-05A171714E0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recursive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-1C2E-47DD-83BC-05A171714E0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$3:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-1C2E-47DD-83BC-05A171714E0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="363653295"/>
+        <c:axId val="103734543"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="363653295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103734543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103734543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363653295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время выполнения глупой сортировки</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2027185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7850069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8786-4003-AC17-1DC0E39E3317}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recursive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$J$3:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3901498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15468817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8786-4003-AC17-1DC0E39E3317}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3056166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12080368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8786-4003-AC17-1DC0E39E3317}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="372452143"/>
+        <c:axId val="375550175"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="372452143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375550175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="375550175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="372452143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Количество перестановок</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> быстрой сортировки</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$12:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAF0-4F6D-80E9-BA644C02A989}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recursive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$12:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAF0-4F6D-80E9-BA644C02A989}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$12:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BAF0-4F6D-80E9-BA644C02A989}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="108206767"/>
+        <c:axId val="293263087"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108206767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293263087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="293263087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108206767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Количество перестановок глупой сортировки</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$12:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7838-4368-AF60-3A1C59D91784}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recursive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$J$12:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>494499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49495807</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197991165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7838-4368-AF60-3A1C59D91784}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24527782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98675184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7838-4368-AF60-3A1C59D91784}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="432575599"/>
+        <c:axId val="293262255"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="432575599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293262255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="293262255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432575599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1402,20 +4458,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1435,6 +6555,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA1B1D2-9DA4-4605-AA50-4F100B80B5FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A343A728-616F-408B-B6B8-E569EEB6276E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C79BE0-B159-435B-8F91-124165F8C4FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4211E37B-0132-4195-86E0-123F90DF8D61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1009649</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>757236</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16613A1B-7AEA-458F-A2DE-DCB7EE0C1C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1705,29 +7005,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3346934B-274A-415C-8A88-878CAEBC71AB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:K6"/>
+  <dimension ref="E1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="11" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="11" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
@@ -1844,10 +7159,139 @@
         <v>12080368</v>
       </c>
     </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4892</v>
+      </c>
+      <c r="K12">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>500</v>
+      </c>
+      <c r="H13">
+        <v>171</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>494499</v>
+      </c>
+      <c r="K13">
+        <v>249664</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14">
+        <v>56</v>
+      </c>
+      <c r="G14">
+        <v>5000</v>
+      </c>
+      <c r="H14">
+        <v>2406</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>49495807</v>
+      </c>
+      <c r="K14">
+        <v>24527782</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>20000</v>
+      </c>
+      <c r="F15">
+        <v>104</v>
+      </c>
+      <c r="G15">
+        <v>10000</v>
+      </c>
+      <c r="H15">
+        <v>4999</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>197991165</v>
+      </c>
+      <c r="K15">
+        <v>98675184</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
